--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82744.16954568712</v>
+        <v>15594999.5805618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82744.16954568712</v>
+        <v>15594999.5805618</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129628.1798265835</v>
+        <v>15485886.84283781</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129628.1798265835</v>
+        <v>15485886.84283781</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608507113.71153</v>
+        <v>52839924.19092757</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15038.88312319615</v>
+        <v>1405890.569131189</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28542.25089388371</v>
+        <v>2591115.165718892</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42139.40795946165</v>
+        <v>3776339.762306594</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58047.18607953264</v>
+        <v>4455372.595987878</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71678.35133459304</v>
+        <v>5707829.623196309</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84818.84301600794</v>
+        <v>6882806.881062526</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97967.24472650459</v>
+        <v>8057784.138928743</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111099.8263788377</v>
+        <v>9232761.396794952</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126451.1461831622</v>
+        <v>9790555.426471151</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142171.7773107867</v>
+        <v>10488201.04492891</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157846.5655132488</v>
+        <v>11179168.45266272</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>173521.5449951723</v>
+        <v>11870135.86039653</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>189196.1419181731</v>
+        <v>12561103.26813034</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>204870.9301206352</v>
+        <v>13252070.67586415</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>224809.5925574495</v>
+        <v>13459494.00752187</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>150</v>
@@ -27055,13 +27055,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>182</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
